--- a/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
+++ b/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\10-Cyborg\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\10-Cyborg\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>[[AP: 0 ]]</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Recharge </t>
   </si>
   <si>
-    <t>Effect name: ''Power Supply''.</t>
-  </si>
-  <si>
     <t>[[AP: 1 ]]</t>
   </si>
   <si>
@@ -65,21 +62,12 @@
     <t>[[Cast in straight line: No ]]</t>
   </si>
   <si>
-    <t>[[Max effect accumulation: 20 ]]</t>
-  </si>
-  <si>
     <t>[[Number of cast per turn per target: 5 ]]</t>
   </si>
   <si>
     <t>[[Area of effect: - Single cell ]]</t>
   </si>
   <si>
-    <t>Self targeting: [[+1 ''Power Supply'' effect level ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>Other entities: [[Damage: 5 light ]]</t>
-  </si>
-  <si>
     <t>Supercapacitor Blow</t>
   </si>
   <si>
@@ -98,27 +86,9 @@
     <t>[[AP: 5 ]]</t>
   </si>
   <si>
-    <t>Enemies targeting: [[+4 ''Power Supply'' effect level ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>[[Damage:  3 light * ''Power Supply'' effect level ]]</t>
-  </si>
-  <si>
-    <t>[[Damage:  20-30 earth ]]</t>
-  </si>
-  <si>
     <t>Cyber Slash</t>
   </si>
   <si>
-    <t>[[Damage:  2 light * ''Power Supply'' effect level ]]</t>
-  </si>
-  <si>
-    <t>[[Damage:  30-40 earth ]]</t>
-  </si>
-  <si>
-    <t>Per enemy targeting: [[+2 ''Power Supply'' effect level ]] (00 turns)</t>
-  </si>
-  <si>
     <t>[[AP: 4 ]]</t>
   </si>
   <si>
@@ -128,39 +98,12 @@
     <t>[[Area of effect: - Hammer area + 2 cells on each side of the caster]]</t>
   </si>
   <si>
-    <t>Inflicts Earth-type and Light-type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                            Increase the ''Power Supply'' level effect of the caster.</t>
-  </si>
-  <si>
-    <t>Inflicts Light-type damage to another entity                                                               OR                                                                                                                Increase the ''Power Supply'' effect level of the caster.</t>
-  </si>
-  <si>
-    <t>Inflicts Earth-type and Light-type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                                     Increase the ''Power Supply'' effect level of the caster depending of the amount of enemies hit.</t>
-  </si>
-  <si>
     <t>Taser Sword</t>
   </si>
   <si>
-    <t>[[Damage:  5 * (''Power Supply'' lvl effect) light ]]</t>
-  </si>
-  <si>
-    <t>If ''Power Supply'' lvl effect = 20 (max)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage:  125 fire ]]</t>
-  </si>
-  <si>
-    <t>[[Damage:  25 earth ]]</t>
-  </si>
-  <si>
-    <t>Set ''Power Supply'' lvl effect to 0.</t>
-  </si>
-  <si>
     <t>[[AP: 3 ]]</t>
   </si>
   <si>
-    <t>Inflicts Earth-type, Light-type and Fire-Type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                                       The fire-type damage only happen when the ''Power Supply'' effect level is maxed.                                                                                                Remove all the ''Power Supply'' level of the caster.</t>
-  </si>
-  <si>
     <t>Grapnel Hook</t>
   </si>
   <si>
@@ -182,33 +125,9 @@
     <t>[[Number of cast per turn per target: 2 ]]</t>
   </si>
   <si>
-    <t>Target: Attract by 2 cells.</t>
-  </si>
-  <si>
-    <t>On enemy: [[Damage:  10-15 earth ]]</t>
-  </si>
-  <si>
-    <t>Inflicts Earth-type damage and attract.</t>
-  </si>
-  <si>
     <t>Jetpack</t>
   </si>
   <si>
-    <t>Self: Teleport to the targeted empty cell.</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Self: [[Melee Invulnerable]] (1 turn)</t>
-  </si>
-  <si>
-    <t>[[Area of effect: - Straight line of cells + adjacent cells (next turn) ]]</t>
-  </si>
-  <si>
-    <t>Self: End turn.</t>
-  </si>
-  <si>
     <t>[[MP: 2 ]]</t>
   </si>
   <si>
@@ -218,57 +137,18 @@
     <t>[[Range: 1-6 ]]</t>
   </si>
   <si>
-    <t>Self: -2 (''Power Supply'' effect lvl) per Range unit.</t>
-  </si>
-  <si>
     <t>[[Number of turns between two casts: 5 ]]</t>
   </si>
   <si>
-    <t>Effect name: ''Melee Invulnerable''.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entities between caster and targeted cell: [[Damage:  25-30 fire ]] </t>
-  </si>
-  <si>
     <t>Active glyph: [[Damage:  20 fire ]]</t>
   </si>
   <si>
-    <t>Entities around caster: Next turn: [[Damage:  30 fire ]]</t>
-  </si>
-  <si>
-    <t>Places an aggressive glyph from caster cell to targeted cell (2 turns)               (exclude targeted cell).</t>
-  </si>
-  <si>
-    <t>Teleports the caster.                                                                         Inflicts Fire-type damage to entities on the teleportation path.                        Places aggressive glyphs that inflicts Fire-type damage on the teleportation path.                                                                               The next turn, inflicts Fire-type damage on the adjacent cells.                                                                                                                              Consume ''Power Supply'' effect level depending of the target range. Can only select range that the caster as enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
     <t>Charging Point</t>
   </si>
   <si>
     <t>[[Range: 1-2 ]]</t>
   </si>
   <si>
-    <t>Summons a ''Charging Point'' [[+10% summoner HP per AP consummed for the summoning, 3 AP, 0 MP, 30% earth resistence,    -15% fire resistence, -50% water resistence, 30% air resistence, 80% light resistence, 0% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Effect name: ''Self-Destruction Countdown''.</t>
-  </si>
-  <si>
-    <t>Self: Remove all the remaning AP.</t>
-  </si>
-  <si>
-    <t>Self: -3 (''Power Supply'' effect lvl).</t>
-  </si>
-  <si>
-    <t>Charging Point: +1 (''Self-Destruction Countdown'' lvl effect) per AP consummed for the summoning.</t>
-  </si>
-  <si>
-    <t>Effect name: ''Binding''.</t>
-  </si>
-  <si>
-    <t>Charging Point: [[Binding]] (00 turns)</t>
-  </si>
-  <si>
     <t>Charging Point skill</t>
   </si>
   <si>
@@ -278,24 +158,6 @@
     <t>[[Range: 0 ]]</t>
   </si>
   <si>
-    <t>Effect name: ''Charging Point''.</t>
-  </si>
-  <si>
-    <t>[[Area of effect: - Square of 1 cell around the summpn ]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entities: +2 AP                                              </t>
-  </si>
-  <si>
-    <t>If character entity = ''Cyborg''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    entity: +2 (''Power Supply'' effect lvl).</t>
-  </si>
-  <si>
-    <t>Boost the AP of the allies and enemies ans increase the ''Power Supply'' level effect of Cyborgs.</t>
-  </si>
-  <si>
     <t>Electrotherapy</t>
   </si>
   <si>
@@ -305,15 +167,6 @@
     <t>Summons an unmovable ''Charging Point'' on an empty cell. Consume all the caster AP. The summon life and number of turn on the field vary depending of the amount of AP consumed.                                       The caster must have enough ''Power Supply'' effect level to be consumed.</t>
   </si>
   <si>
-    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the targets' maximum health.      The healing is more effective on the caster or an adjacent target.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t>On caster or adjacent target: [[Heal:  10% target max HP]]</t>
-  </si>
-  <si>
-    <t>On ranged target:                    [[Heal:  5% target max HP]]</t>
-  </si>
-  <si>
     <t>Force Field</t>
   </si>
   <si>
@@ -323,50 +176,558 @@
     <t>[[Area of effect: - Circle whit 2 cells radius ]]</t>
   </si>
   <si>
-    <t>Effect name: ''Force Field''.</t>
-  </si>
-  <si>
-    <t>Effect name: ''Heavy''.</t>
-  </si>
-  <si>
     <t>Entities can't enter or exit the ''Force Field'' area by themself.                                 The ''Force Field'' area move whit the entity having the effect.                           The entities on the ''Force Field'' area can't use self moving abilities except for the entity having the ''Force Field'' effect.                                                                                                     The caster must have enough ''Power Supply'' effect level to be consumed.</t>
   </si>
   <si>
-    <t>Target: [[Force Field]] (1 turn)</t>
-  </si>
-  <si>
-    <t>Entities on the area: [[Heavy]] (While in the area)</t>
-  </si>
-  <si>
-    <t>Self: -6 (''Power Supply'' effect lvl).</t>
-  </si>
-  <si>
     <t>Checkpoint</t>
   </si>
   <si>
     <t>[[Number of turns between two casts: 3 ]]</t>
   </si>
   <si>
-    <t>Effect name: ''Checkpoint''.</t>
-  </si>
-  <si>
-    <t>Target: [[Checkpoint]] (1 turn)</t>
-  </si>
-  <si>
-    <t>If the target can't be teleported on his checkpoint (ex: entity there):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage: 100 light]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Save the position of the target and teleport it at that position at the end of his turn.                                                                    Inflicts Light-type damage to the target at the end of his turn if he didn't successfully teleport at his checkpoint position.                                                                                The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+    <t>Self targeting:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 5 light ]]</t>
+  </si>
+  <si>
+    <t>Increase the ''Power Supply'' effect level of the caster.                                                                                            OR                                                                                                            Inflicts Light-type damage to another entity.</t>
+  </si>
+  <si>
+    <t>Inflicts Ground-type and Light-type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                            Increase the ''Power Supply'' level effect of the caster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If targeting an entity: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Caster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +4 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Damage: 30-40 ground ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage: 3 light * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels ]]</t>
+    </r>
+  </si>
+  <si>
+    <t>Inflicts Ground-type and Light-type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                                     Increase the ''Power Supply'' effect level of the caster depending of the amount of entities hit.</t>
+  </si>
+  <si>
+    <t>[[Damage: 20-30 ground ]]</t>
+  </si>
+  <si>
+    <t>Per entities hit:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Caster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels ]] (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inflicts Ground-type, Light-type and Fire-Type damage.                                                         The Light-type damage vary depending of the ''Power Supply'' effect level.                                                                                                       The fire-type damage only happen when the ''Power Supply'' effect level is maxed.                                                                                                Remove all the ''Power Supply'' level of the caster.</t>
+  </si>
+  <si>
+    <t>[[Damage: 25 ground ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage: 2 light * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels ]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage: 5 light * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels ]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]] levels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 20 (max)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 125 fire ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caster: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Power Supply]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>levels to 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Inflicts Ground-type damage and attract.</t>
+  </si>
+  <si>
+    <t>Attract by 2 cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 10-15 ground ]]</t>
+  </si>
+  <si>
+    <t>Enemy:</t>
+  </si>
+  <si>
+    <t>Self:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Teleport to the targeted empty cell.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -2 levels per Range unit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Invulnerable (Melee)]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    End current turn.</t>
+  </si>
+  <si>
+    <t>Entities between caster and targeted cell:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 25-30 fire ]]</t>
+  </si>
+  <si>
+    <t>Teleports the caster.                                                                         Inflicts Fire-type damage to entities on the teleportation path.                        Places aggressive glyphs that inflicts Fire-type damage on the teleportation path.                                                                                                                                                                                                             Consume ''Power Supply'' effect level depending of the target range. Can only select range that the caster as enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Straight line of cells ]]</t>
+  </si>
+  <si>
+    <t>'Jetpack Glyph'' (Active Glyph) (2 turns) (exclude targeted cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Remove all the remaning AP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -3 levels</t>
+    </r>
+  </si>
+  <si>
+    <t>Summons a ''Charging Point'' [[+10% summoner HP per AP consummed for the summoning, 3 AP, 0 MP, 30% ground resistence,    -15% fire resistence, -50% water resistence, 30% wind resistence, 80% light resistence, 0% dark resistence]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">''Charging Point'': </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Self-Destruction Countdown]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>((AP consummed) turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Binding]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Area of effect: - Square of 1 cell around the summon ]]</t>
+  </si>
+  <si>
+    <t>Boost the AP of the allies and enemies and increase the ''Power Supply'' level effect of Cyborgs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Stimulated]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Cyborg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>If is a Cyborg:</t>
+  </si>
+  <si>
+    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the target maximum health.            The healing is more effective on the caster or an adjacent entity.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self: </t>
+  </si>
+  <si>
+    <t>If targeting caster or adjacent entity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 10% HP]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 5% HP]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -6 levels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Active glyph: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Binding]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (While in the area)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Checkpoint]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          Save the position of the target and teleport it to that position at the end of his turn.                                                                                      Inflicts Light-type damage to the target at the end of his turn if he didn't successfully teleport at the checkpoint position.                                                                                The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t>''Force Field Glyph'' (Active Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <t>''Checkpoint Glyph'' (Passive Glyph) (1 turn)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +767,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -439,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -508,11 +887,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -523,7 +911,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,9 +931,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,6 +943,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,7 +1274,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +1293,7 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -907,8 +1305,8 @@
     </row>
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
+      <c r="C5" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -920,14 +1318,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -939,21 +1337,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -964,8 +1362,8 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -977,38 +1375,40 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
-        <v>13</v>
+      <c r="C20" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1037,9 +1437,7 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -1077,8 +1475,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>102</v>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1089,8 +1487,8 @@
     </row>
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>108</v>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1102,14 +1500,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1121,21 +1519,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1147,7 +1545,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1159,39 +1557,39 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
-        <v>74</v>
+      <c r="C18" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>105</v>
+      <c r="C19" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
-        <v>106</v>
+      <c r="C20" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="25" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="1"/>
@@ -1221,9 +1619,7 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -1238,6 +1634,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D27"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
@@ -1261,8 +1832,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1271,10 +1842,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
-        <v>31</v>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1286,14 +1857,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1305,7 +1876,7 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1317,52 +1888,52 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="12" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
+      <c r="C18" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
+      <c r="C19" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1391,9 +1962,7 @@
     </row>
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -1407,12 +1976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,8 +2000,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1441,10 +2010,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1456,14 +2025,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1475,7 +2044,7 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1487,7 +2056,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1499,7 +2068,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1510,199 +2079,36 @@
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="12" t="s">
-        <v>23</v>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
-    <col min="4" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
+      <c r="C17" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="14" t="s">
-        <v>36</v>
+      <c r="C18" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="13" t="s">
-        <v>37</v>
+      <c r="C19" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
-        <v>39</v>
+      <c r="C20" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1731,13 +2137,16 @@
     </row>
     <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,715 +2155,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
-    <col min="4" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="87.5703125" customWidth="1"/>
-    <col min="4" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="156" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-      <c r="C23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="39" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
-      <c r="C25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
-    <col min="4" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="97.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" ht="78.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-      <c r="C23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-      <c r="C24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D28"/>
   <sheetViews>
@@ -2478,8 +2178,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>87</v>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2488,10 +2188,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>90</v>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2503,14 +2203,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2522,21 +2222,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2548,14 +2248,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2567,7 +2267,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2576,24 +2276,24 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="12" t="s">
-        <v>91</v>
+      <c r="C19" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="13" t="s">
-        <v>92</v>
+      <c r="C20" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
-        <v>74</v>
+      <c r="C21" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -2622,7 +2322,7 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -2636,12 +2336,547 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="1"/>
+      <c r="C27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="1"/>
+      <c r="G1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+      <c r="C22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D31"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,8 +2895,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>93</v>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2670,10 +2905,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>98</v>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2685,14 +2920,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2704,21 +2939,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2730,7 +2965,210 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D28"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2742,71 +3180,69 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
-        <v>101</v>
+      <c r="C18" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>99</v>
+      <c r="C19" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
-        <v>100</v>
+      <c r="C20" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">

--- a/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
+++ b/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-Recharge " sheetId="1" r:id="rId1"/>
@@ -555,6 +555,76 @@
     </r>
   </si>
   <si>
+    <t>[[Area of effect: - Square of 1 cell around the summon ]]</t>
+  </si>
+  <si>
+    <t>Boost the AP of the allies and enemies and increase the ''Power Supply'' level effect of Cyborgs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Stimulated]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Cyborg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>If is a Cyborg:</t>
+  </si>
+  <si>
+    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the target maximum health.            The healing is more effective on the caster or an adjacent entity.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self: </t>
+  </si>
+  <si>
+    <t>If targeting caster or adjacent entity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 10% HP]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 5% HP]]</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">    </t>
     </r>
@@ -565,7 +635,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Binding]]</t>
+      <t>[[Power Supply]]</t>
     </r>
     <r>
       <rPr>
@@ -574,16 +644,65 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> -6 levels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Checkpoint]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          Save the position of the target and teleport it to that position at the end of his turn.                                                                                      Inflicts Light-type damage to the target at the end of his turn if he didn't successfully teleport at the checkpoint position.                                                                                The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t>''Force Field Glyph'' (Active Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <t>''Checkpoint Glyph'' (Passive Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Heavy]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> (00 turns)</t>
     </r>
   </si>
   <si>
-    <t>[[Area of effect: - Square of 1 cell around the summon ]]</t>
-  </si>
-  <si>
-    <t>Boost the AP of the allies and enemies and increase the ''Power Supply'' level effect of Cyborgs.</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">Active glyph: </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -591,7 +710,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Stimulated]]</t>
+      <t>[[Heavy]]</t>
     </r>
     <r>
       <rPr>
@@ -600,127 +719,8 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +2 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    Cyborg: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Power Supply]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +2 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t>If is a Cyborg:</t>
-  </si>
-  <si>
-    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the target maximum health.            The healing is more effective on the caster or an adjacent entity.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self: </t>
-  </si>
-  <si>
-    <t>If targeting caster or adjacent entity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 10% HP]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Else: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 5% HP]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Power Supply]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -6 levels</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Active glyph: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Binding]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> (While in the area)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Checkpoint]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          Save the position of the target and teleport it to that position at the end of his turn.                                                                                      Inflicts Light-type damage to the target at the end of his turn if he didn't successfully teleport at the checkpoint position.                                                                                The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t>''Force Field Glyph'' (Active Glyph) (1 turn)</t>
-  </si>
-  <si>
-    <t>''Checkpoint Glyph'' (Passive Glyph) (1 turn)</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1488,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1569,7 +1569,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1583,14 +1583,14 @@
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -2564,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2620,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2714,7 +2714,7 @@
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -2732,7 +2732,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -2754,7 +2754,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -2804,7 +2804,7 @@
     <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -2876,7 +2876,7 @@
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+      <selection activeCell="G26" sqref="G26:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2908,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2996,7 +2996,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -3010,28 +3010,28 @@
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -3192,28 +3192,28 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
+++ b/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-Recharge " sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="9-ForceField" sheetId="9" r:id="rId9"/>
     <sheet name="10-Checkpoint" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,9 +140,6 @@
     <t>[[Number of turns between two casts: 5 ]]</t>
   </si>
   <si>
-    <t>Active glyph: [[Damage:  20 fire ]]</t>
-  </si>
-  <si>
     <t>Charging Point</t>
   </si>
   <si>
@@ -483,12 +480,6 @@
     <t>Teleports the caster.                                                                         Inflicts Fire-type damage to entities on the teleportation path.                        Places aggressive glyphs that inflicts Fire-type damage on the teleportation path.                                                                                                                                                                                                             Consume ''Power Supply'' effect level depending of the target range. Can only select range that the caster as enough ''Power Supply'' effect level to be consumed.</t>
   </si>
   <si>
-    <t>[[Area of effect: - Straight line of cells ]]</t>
-  </si>
-  <si>
-    <t>'Jetpack Glyph'' (Active Glyph) (2 turns) (exclude targeted cell)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Remove all the remaning AP.</t>
   </si>
   <si>
@@ -700,9 +691,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Active glyph: </t>
-    </r>
+    <t>'Burning Ground'' (Active Glyph) (2 turns)</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Straight line of cells ]] (exclude targeted cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage:  25 fire ]]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -710,7 +707,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Heavy]]</t>
+      <t xml:space="preserve">    [[Heavy]]</t>
     </r>
     <r>
       <rPr>
@@ -1306,7 +1303,7 @@
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1387,28 +1384,28 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1456,7 +1453,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1473,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1488,7 +1485,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1507,7 +1504,7 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1545,7 +1542,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1569,28 +1566,28 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1670,7 +1667,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1744,28 +1741,28 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1845,7 +1842,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1912,28 +1909,28 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2013,7 +2010,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2080,35 +2077,35 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -2191,7 +2188,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2279,21 +2276,21 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -2341,7 +2338,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2370,7 @@
     <row r="5" spans="2:4" ht="136.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2449,7 +2446,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2461,63 +2458,63 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="21" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -2580,7 +2577,7 @@
     <row r="1" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="1"/>
       <c r="G1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2595,12 +2592,12 @@
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2615,12 +2612,12 @@
     <row r="5" spans="2:8" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2647,12 +2644,12 @@
     <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -2714,7 +2711,7 @@
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -2732,7 +2729,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2742,7 +2739,7 @@
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -2754,7 +2751,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -2769,49 +2766,49 @@
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -2896,7 +2893,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2908,7 +2905,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2927,7 +2924,7 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2996,42 +2993,42 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -3079,7 +3076,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3096,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -3111,7 +3108,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3168,7 +3165,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -3180,7 +3177,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -3192,21 +3189,21 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
+++ b/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\10-Cyborg\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien Godbout\Desktop\_MyDev\BattleForVoxturia\GameDesign\Class\_Done\10-Cyborg\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Recharge " sheetId="1" r:id="rId1"/>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
-  <si>
-    <t>[[AP: 0 ]]</t>
-  </si>
-  <si>
-    <t>[[Area of effect: - Stright line of 1 cell]]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Additional Info</t>
   </si>
@@ -62,9 +56,6 @@
     <t>[[Cast in straight line: No ]]</t>
   </si>
   <si>
-    <t>[[Number of cast per turn per target: 5 ]]</t>
-  </si>
-  <si>
     <t>[[Area of effect: - Single cell ]]</t>
   </si>
   <si>
@@ -128,12 +119,6 @@
     <t>Jetpack</t>
   </si>
   <si>
-    <t>[[MP: 2 ]]</t>
-  </si>
-  <si>
-    <t>[[AP: 6 ]]</t>
-  </si>
-  <si>
     <t>[[Range: 1-6 ]]</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>[[Area of effect: - Circle whit 2 cells radius ]]</t>
   </si>
   <si>
-    <t>Entities can't enter or exit the ''Force Field'' area by themself.                                 The ''Force Field'' area move whit the entity having the effect.                           The entities on the ''Force Field'' area can't use self moving abilities except for the entity having the ''Force Field'' effect.                                                                                                     The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
     <t>Checkpoint</t>
   </si>
   <si>
@@ -356,6 +338,188 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">    [[Damage: 125 fire ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caster: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Power Supply]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>levels to 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Inflicts Ground-type damage and attract.</t>
+  </si>
+  <si>
+    <t>Attract by 2 cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 10-15 ground ]]</t>
+  </si>
+  <si>
+    <t>Enemy:</t>
+  </si>
+  <si>
+    <t>Self:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Teleport to the targeted empty cell.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -3 levels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">''Charging Point'': </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>[[Area of effect: - Square of 1 cell around the summon ]]</t>
+  </si>
+  <si>
+    <t>Boost the AP of the allies and enemies and increase the ''Power Supply'' level effect of Cyborgs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Stimulated]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>If is a Cyborg:</t>
+  </si>
+  <si>
+    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the target maximum health.            The healing is more effective on the caster or an adjacent entity.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 10% HP]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 5% HP]]</t>
+  </si>
+  <si>
+    <t>''Force Field Glyph'' (Active Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Heavy]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>'Burning Ground'' (Active Glyph) (2 turns)</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Straight line of cells ]] (exclude targeted cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage:  25 fire ]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    [[Heavy]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (While in the area)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Number of cast per turn: 5 ]]</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">If </t>
     </r>
@@ -366,7 +530,15 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Power Supply]] levels</t>
+      <t xml:space="preserve">[[Power Supply]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>levels</t>
     </r>
     <r>
       <rPr>
@@ -379,11 +551,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">    [[Damage: 125 fire ]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caster: Set </t>
+    <r>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -392,34 +561,52 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Power Supply]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>levels to 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Inflicts Ground-type damage and attract.</t>
-  </si>
-  <si>
-    <t>Attract by 2 cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage: 10-15 ground ]]</t>
-  </si>
-  <si>
-    <t>Enemy:</t>
-  </si>
-  <si>
-    <t>Self:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Teleport to the targeted empty cell.</t>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -1 levels per Range unit.</t>
+    </r>
+  </si>
+  <si>
+    <t>[[MP: 1 ]]</t>
+  </si>
+  <si>
+    <t>Teleports the caster.                                                                                                Places active glyphs that inflicts Fire-type damage on the teleportation path.                                                                                                                                                                                                             Consume ''Power Supply'' effect level depending of the target range. Can only select range that the caster as enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Cyborg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[AP: Remaning AP ]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Charging Point'' [[+10% summoner initial Max HP per AP consummed for the summoning, 3 AP, 0 MP, 30% ground resistence,    -15% fire resistence, -50% water resistence, 30% wind resistence, 80% light resistence, 0% dark resistence]]</t>
   </si>
   <si>
     <r>
@@ -441,7 +628,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> -2 levels per Range unit.</t>
+      <t xml:space="preserve"> +(Ap consummed) levels (00 turns)</t>
     </r>
   </si>
   <si>
@@ -455,7 +642,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Invulnerable (Melee)]]</t>
+      <t>[[Power Supply]]</t>
     </r>
     <r>
       <rPr>
@@ -464,23 +651,40 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    End current turn.</t>
-  </si>
-  <si>
-    <t>Entities between caster and targeted cell:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage: 25-30 fire ]]</t>
-  </si>
-  <si>
-    <t>Teleports the caster.                                                                         Inflicts Fire-type damage to entities on the teleportation path.                        Places aggressive glyphs that inflicts Fire-type damage on the teleportation path.                                                                                                                                                                                                             Consume ''Power Supply'' effect level depending of the target range. Can only select range that the caster as enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Remove all the remaning AP.</t>
+      <t xml:space="preserve"> -1 levels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    If has not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Power Supply]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, set K/O. </t>
+    </r>
+  </si>
+  <si>
+    <t>self or adjacent entity:</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Single cell]]</t>
+  </si>
+  <si>
+    <t>Entities can't enter or exit the ''Force Field'' area by themself.                                                                                                                                                            The caster must have enough ''Power Supply'' effect level to be consumed.</t>
   </si>
   <si>
     <r>
@@ -502,228 +706,23 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> -3 levels</t>
-    </r>
-  </si>
-  <si>
-    <t>Summons a ''Charging Point'' [[+10% summoner HP per AP consummed for the summoning, 3 AP, 0 MP, 30% ground resistence,    -15% fire resistence, -50% water resistence, 30% wind resistence, 80% light resistence, 0% dark resistence]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">''Charging Point'': </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Self-Destruction Countdown]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>((AP consummed) turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Area of effect: - Square of 1 cell around the summon ]]</t>
-  </si>
-  <si>
-    <t>Boost the AP of the allies and enemies and increase the ''Power Supply'' level effect of Cyborgs.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Stimulated]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +2 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    Cyborg: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Power Supply]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +2 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t>If is a Cyborg:</t>
-  </si>
-  <si>
-    <t>Heal Light-type a target.                                                                        Heals given are proportionate to the target maximum health.            The healing is more effective on the caster or an adjacent entity.                               The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self: </t>
-  </si>
-  <si>
-    <t>If targeting caster or adjacent entity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 10% HP]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Else: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 5% HP]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Power Supply]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -6 levels</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Checkpoint]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          Save the position of the target and teleport it to that position at the end of his turn.                                                                                      Inflicts Light-type damage to the target at the end of his turn if he didn't successfully teleport at the checkpoint position.                                                                                The caster must have enough ''Power Supply'' effect level to be consumed.</t>
-  </si>
-  <si>
-    <t>''Force Field Glyph'' (Active Glyph) (1 turn)</t>
-  </si>
-  <si>
-    <t>''Checkpoint Glyph'' (Passive Glyph) (1 turn)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Heavy]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>'Burning Ground'' (Active Glyph) (2 turns)</t>
-  </si>
-  <si>
-    <t>[[Area of effect: - Straight line of cells ]] (exclude targeted cell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage:  25 fire ]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    [[Heavy]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (While in the area)</t>
-    </r>
+      <t xml:space="preserve"> -5 levels</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          Save the position and teleport there at the end of the turn.                                                                                                                                                                      The caster must have enough ''Power Supply'' effect level to be consumed.</t>
+  </si>
+  <si>
+    <t>''Checkpoint Glyph'' (Passive Glyph) (self turn)</t>
+  </si>
+  <si>
+    <t>Teleport to the targeted cell at the end of the turn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -954,6 +953,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,14 +1270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1291,7 +1294,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1303,7 +1306,7 @@
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1315,14 +1318,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1334,21 +1337,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1360,7 +1363,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1372,7 +1375,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1384,28 +1387,28 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1423,7 +1426,7 @@
     <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1449,14 +1452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1473,7 +1476,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1482,10 +1485,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1497,14 +1500,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1516,21 +1519,19 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1542,87 +1543,75 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
+      <c r="C16" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="15" t="s">
-        <v>93</v>
+      <c r="C18" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="23" t="s">
-        <v>83</v>
+      <c r="C19" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,14 +1620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1655,7 +1644,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1667,7 +1656,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1679,14 +1668,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1698,7 +1687,7 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1710,94 +1699,87 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="11" t="s">
-        <v>57</v>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="11" t="s">
-        <v>55</v>
+      <c r="C19" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,14 +1788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1830,7 +1812,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1842,7 +1824,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1854,14 +1836,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1873,7 +1855,7 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1885,7 +1867,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1897,7 +1879,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1909,28 +1891,28 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1948,7 +1930,7 @@
     <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1974,14 +1956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1998,7 +1980,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2010,7 +1992,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2022,14 +2004,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2041,7 +2023,7 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2053,7 +2035,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2065,7 +2047,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2077,35 +2059,35 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -2123,7 +2105,7 @@
     <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -2152,14 +2134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2176,7 +2158,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2188,7 +2170,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2200,14 +2182,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2219,21 +2201,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2245,14 +2227,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2264,7 +2246,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2276,21 +2258,21 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -2308,7 +2290,7 @@
     <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -2334,14 +2316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="87.5703125" customWidth="1"/>
@@ -2358,7 +2340,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2367,10 +2349,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="136.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2382,21 +2364,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2408,21 +2390,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2434,7 +2416,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2446,7 +2428,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2458,63 +2440,53 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>77</v>
+      <c r="C22" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
+      <c r="C23" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
-      <c r="C25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="21" t="s">
-        <v>104</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
-      <c r="C27" s="12" t="s">
-        <v>106</v>
+      <c r="C27" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -2523,33 +2495,15 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2558,14 +2512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="87.5703125" customWidth="1"/>
@@ -2577,7 +2531,7 @@
     <row r="1" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="1"/>
       <c r="G1" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2592,12 +2546,12 @@
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2612,12 +2566,12 @@
     <row r="5" spans="2:8" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2632,24 +2586,24 @@
     <row r="7" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -2664,19 +2618,19 @@
     <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
@@ -2686,12 +2640,12 @@
     <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -2706,12 +2660,12 @@
     <row r="14" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -2729,7 +2683,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="17" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2739,105 +2693,108 @@
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="18" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="22" t="s">
-        <v>82</v>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="1"/>
+      <c r="G21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.4">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="14" t="s">
-        <v>84</v>
+      <c r="C23" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="24" t="s">
-        <v>85</v>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" ht="78" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="24" t="s">
-        <v>103</v>
+      <c r="C25" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="22" t="s">
-        <v>86</v>
+      <c r="C26" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
+    </row>
+    <row r="30" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2846,21 +2803,41 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,14 +2846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G28"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2893,7 +2870,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2905,7 +2882,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2917,14 +2894,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2936,21 +2913,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2962,14 +2939,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2981,7 +2958,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2993,42 +2970,42 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="15" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="15" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -3046,7 +3023,7 @@
     <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -3072,14 +3049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -3096,7 +3073,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -3105,10 +3082,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -3120,14 +3097,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -3139,21 +3116,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -3165,7 +3142,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -3177,7 +3154,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -3189,28 +3166,28 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="21" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -3228,7 +3205,7 @@
     <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
+++ b/GameDesign/Class/_Done/10-Cyborg/Documentation/CyborgSkills.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Recharge " sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2849,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
